--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15755.95543596832</v>
+        <v>3135435.131757696</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15755.95543596832</v>
+        <v>3135435.131757696</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48025.48454129019</v>
+        <v>2915500.95481474</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48025.48454129019</v>
+        <v>2915500.95481474</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266638718.352095</v>
+        <v>50133733.50585451</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12963.38914181463</v>
+        <v>1276292.339392297</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24158.81816236198</v>
+        <v>2254246.616921305</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35348.37000112426</v>
+        <v>3232200.894450315</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47203.18115490635</v>
+        <v>4208763.244796472</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59057.99230868839</v>
+        <v>5185325.595142629</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>70912.80346247045</v>
+        <v>6161887.945488781</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82767.61461625248</v>
+        <v>7138450.295834934</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94622.42577003459</v>
+        <v>8115012.646181086</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106540.5116898779</v>
+        <v>9074954.543519957</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>118422.4634339913</v>
+        <v>10054226.67447574</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>130286.2010366906</v>
+        <v>11029874.1912901</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142149.9386393899</v>
+        <v>12005521.70810447</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154013.6762420892</v>
+        <v>12981169.22491884</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>165877.4138447885</v>
+        <v>13956816.74173321</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>177845.3510777631</v>
+        <v>14920698.43705189</v>
       </c>
     </row>
   </sheetData>
@@ -27037,22 +27037,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1111</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
